--- a/core-db/src/main/java/hbi/core/db/data/2018-12-26-hmdm-type-data.xlsx
+++ b/core-db/src/main/java/hbi/core/db/data/2018-12-26-hmdm-type-data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaohaozi/Downloads/hap/HbiParent/core-db/src/main/java/hbi/core/db/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="68">
   <si>
     <r>
       <rPr>
@@ -63,7 +68,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -81,7 +85,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -99,7 +102,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -117,7 +119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -149,10 +150,361 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颜色示例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非强制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>颜色示例</t>
+      <t>请给特殊单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列名添加颜色</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提高数据可读性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="DengXian"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC55A11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动生成</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2E75B6"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF2E75B6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唯一性检查</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF548235"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外键引用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>理论上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表的前后顺序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">,sheet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页的顺序没有严格要求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但请尽量按照先插 后引用的顺序排列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减少迭代次数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>列名格式举例</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>ROLE_CODE</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>*USER_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该列的值自动生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当数据库存在等价记录时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个值会被替换为数据库中已存在的值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增长</t>
     </r>
     <r>
       <rPr>
@@ -167,28 +519,9 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非必须</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非强制</t>
+        <charset val="134"/>
+      </rPr>
+      <t>或序列</t>
     </r>
     <r>
       <rPr>
@@ -198,357 +531,11 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请给特殊单元格</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>列名添加颜色</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提高数据可读性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC55A11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自动生成</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2E75B6"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF2E75B6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>唯一性检查</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF548235"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>公式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF548235"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF548235"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外键引用</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>理论上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表的前后顺序</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">,sheet </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页的顺序没有严格要求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>但请尽量按照先插 后引用的顺序排列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减少迭代次数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>列名格式举例</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>ROLE_CODE</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>*USER_ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该列的值自动生成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当数据库存在等价记录时</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>这个值会被替换为数据库中已存在的值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>自增长</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或序列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -567,7 +554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -585,7 +571,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -604,7 +589,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -622,7 +606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -634,7 +617,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -652,7 +634,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -670,7 +651,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -693,7 +673,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -711,7 +690,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -729,7 +707,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -747,7 +724,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -765,7 +741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -777,7 +752,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -795,7 +769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -837,7 +810,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -855,7 +827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -873,7 +844,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -896,7 +866,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -914,7 +883,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -933,7 +901,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -952,7 +919,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -971,7 +937,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -991,7 +956,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1010,7 +974,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1043,7 +1006,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1063,7 +1025,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1075,7 +1036,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1093,7 +1053,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1113,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1131,7 +1089,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1144,166 +1101,397 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动增长列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果被公式引用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最好写一个人可以读懂的值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增强公式可读性</t>
+    </r>
+  </si>
+  <si>
+    <t>关于公式的说明</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一般用于引用自动生成的外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">所有公式均为 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">Excel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支持的标准公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但不支持特别复杂的计算公式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比如范围计算</t>
+    </r>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>自动增长列</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
+      <t>相对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用当前页 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">E9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+  </si>
+  <si>
+    <t>$E$9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>如果被公式引用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用当前页 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">E9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE!E23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">RESOURCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">E23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>最好写一个人可以读懂的值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
+      <t>相对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE!$E$23</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">引用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">RESOURCE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t xml:space="preserve">E23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>增强公式可读性</t>
-    </r>
-  </si>
-  <si>
-    <t>关于公式的说明</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>一般用于引用自动生成的外键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">所有公式均为 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">Excel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>支持的标准公式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>但不支持特别复杂的计算公式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>比如范围计算</t>
-    </r>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>相对</t>
     </r>
     <r>
@@ -1311,258 +1499,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">引用当前页 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">E9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单元格</t>
-    </r>
-  </si>
-  <si>
-    <t>$E$9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绝对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">引用当前页 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">E9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单元格</t>
-    </r>
-  </si>
-  <si>
-    <t>RESOURCE!E23</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">引用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">RESOURCE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">页的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">E23 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单元格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>RESOURCE!$E$23</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">引用 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">RESOURCE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">页的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t xml:space="preserve">E23 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单元格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>绝对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="DengXian"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1574,7 +1510,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1592,7 +1527,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1610,7 +1544,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1628,7 +1561,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1647,7 +1579,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1665,7 +1596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1683,7 +1613,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1702,7 +1631,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1720,7 +1648,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1738,7 +1665,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1756,7 +1682,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1775,32 +1700,30 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上情况适用于拖拽填充</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>以上情况适用于拖拽填充</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关于</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>绝对</t>
     </r>
     <r>
@@ -1808,7 +1731,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1820,7 +1742,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1838,7 +1759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1850,7 +1770,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1868,7 +1787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1887,7 +1805,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1959,6 +1876,18 @@
   </si>
   <si>
     <t>10002</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +1895,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2063,18 +1992,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
       <name val="DengXian"/>
     </font>
   </fonts>
@@ -2649,25 +2566,25 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="63.95" customHeight="1">
+    <row r="1" spans="1:8" ht="64" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="C1" s="39" t="s">
         <v>0</v>
@@ -2678,10 +2595,10 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="48.95" customHeight="1">
+    <row r="3" spans="1:8" ht="49" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2609,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
@@ -2707,13 +2624,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2650,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +2664,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="54" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
@@ -2758,7 +2675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
@@ -2769,7 +2686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
@@ -2780,17 +2697,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="15"/>
       <c r="D13" s="4"/>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="15"/>
       <c r="D14" s="4"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.25">
       <c r="C15" s="22" t="s">
         <v>26</v>
       </c>
@@ -2801,19 +2718,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>31</v>
       </c>
@@ -2821,7 +2738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
@@ -2837,7 +2754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
@@ -2845,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
+    <row r="25" spans="3:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
@@ -2854,7 +2771,7 @@
       </c>
       <c r="E25" s="38"/>
     </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+    <row r="26" spans="3:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
@@ -2863,7 +2780,7 @@
       </c>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="54" x14ac:dyDescent="0.25">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -2889,29 +2806,29 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
-    <col min="16" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="16" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
@@ -2925,7 +2842,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
@@ -2936,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7" s="30" t="s">
         <v>47</v>
       </c>
@@ -2966,7 +2883,7 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="29"/>
       <c r="F8" s="27" t="s">
         <v>55</v>
@@ -2977,13 +2894,15 @@
       <c r="H8" s="33"/>
       <c r="I8" s="27"/>
       <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="K8" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="L8" s="27"/>
       <c r="M8" s="32"/>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="29"/>
       <c r="F9" s="27" t="s">
         <v>57</v>
@@ -2996,13 +2915,15 @@
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
+      <c r="K9" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="27"/>
       <c r="M9" s="32"/>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="29"/>
       <c r="F10" s="27" t="s">
         <v>61</v>
@@ -3015,13 +2936,15 @@
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="L10" s="27"/>
       <c r="M10" s="32"/>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" s="29"/>
       <c r="F11" s="27" t="s">
         <v>62</v>
@@ -3034,13 +2957,15 @@
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="K11" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="L11" s="27"/>
       <c r="M11" s="32"/>
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" s="29"/>
       <c r="F12" s="27"/>
       <c r="H12" s="33"/>
@@ -3052,7 +2977,7 @@
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E13" s="29"/>
       <c r="F13" s="27"/>
       <c r="H13" s="33"/>
@@ -3064,7 +2989,7 @@
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
     </row>
-    <row r="18" spans="4:9">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
@@ -3072,49 +2997,49 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="4:9">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E19" s="29"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
     </row>
-    <row r="20" spans="4:9">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E20" s="29"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="4:9">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21" s="29"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="4:9">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E22" s="29"/>
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="4:9">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E23" s="29"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="4:9">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E24" s="29"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="4:9">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E25" s="29"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
